--- a/csv_results_HIGH_4E_DD.xlsx
+++ b/csv_results_HIGH_4E_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\floyd\OneDrive\Documenten\GitHub\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62E56C74-232A-4F50-B7E9-4240554CB594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{62E56C74-232A-4F50-B7E9-4240554CB594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{87B5A4D5-2249-4D74-B18C-78C6D545362E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_HIGH_4E_DD" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,11 +1207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ35" sqref="AZ35"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,10 +1219,11 @@
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="13" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
     <col min="28" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="35" max="40" width="0" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="2"/>
+    <col min="47" max="51" width="0" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="56" max="58" width="0" hidden="1" customWidth="1"/>
     <col min="62" max="67" width="0" hidden="1" customWidth="1"/>
     <col min="74" max="79" width="0" hidden="1" customWidth="1"/>
@@ -1298,7 +1299,7 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Z1" t="s">
@@ -1546,7 +1547,7 @@
       <c r="X2">
         <v>1532425.86</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>1581037.503</v>
       </c>
       <c r="Z2">
@@ -1794,7 +1795,7 @@
       <c r="X3">
         <v>472485.24530000001</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>472485.24530000001</v>
       </c>
       <c r="Z3">
@@ -2042,7 +2043,7 @@
       <c r="X4">
         <v>137264.76379999999</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>141297.5203</v>
       </c>
       <c r="Z4">
@@ -2290,7 +2291,7 @@
       <c r="X5">
         <v>922675.85129999998</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>967254.73719999997</v>
       </c>
       <c r="Z5">
@@ -2538,7 +2539,7 @@
       <c r="X6">
         <v>194995.8749</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>231295.63620000001</v>
       </c>
       <c r="Z6">
@@ -2786,7 +2787,7 @@
       <c r="X7">
         <v>30607.113020000001</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>31936.435850000002</v>
       </c>
       <c r="Z7">
@@ -3034,7 +3035,7 @@
       <c r="X8">
         <v>232652.4252</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>232776.08489999999</v>
       </c>
       <c r="Z8">
@@ -3282,7 +3283,7 @@
       <c r="X9">
         <v>22954.250400000001</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <v>23628.632509999999</v>
       </c>
       <c r="Z9">
@@ -3530,7 +3531,7 @@
       <c r="X10">
         <v>120576.7965</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>120662.4645</v>
       </c>
       <c r="Z10">
@@ -3778,7 +3779,7 @@
       <c r="X11">
         <v>283393.01</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <v>288535.89079999999</v>
       </c>
       <c r="Z11">
@@ -4026,7 +4027,7 @@
       <c r="X12">
         <v>0.64101527899999999</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <v>0.64101527899999999</v>
       </c>
       <c r="Z12">
@@ -4274,7 +4275,7 @@
       <c r="X13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>3.517E-2</v>
       </c>
       <c r="Z13">
@@ -4522,7 +4523,7 @@
       <c r="X14">
         <v>17.093740759999999</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="2">
         <v>18.226195010000001</v>
       </c>
       <c r="Z14">
@@ -4770,7 +4771,7 @@
       <c r="X15" s="1">
         <v>9.1099999999999992E-6</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="3">
         <v>9.1099999999999992E-6</v>
       </c>
       <c r="Z15" s="1">
@@ -5018,7 +5019,7 @@
       <c r="X16">
         <v>0.85</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <v>0.85</v>
       </c>
       <c r="Z16">
@@ -5266,7 +5267,7 @@
       <c r="X17">
         <v>10</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="2">
         <v>12</v>
       </c>
       <c r="Z17">
@@ -5514,7 +5515,7 @@
       <c r="X18">
         <v>255.9002275</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>263.41842270000001</v>
       </c>
       <c r="Z18">
@@ -5762,7 +5763,7 @@
       <c r="X19">
         <v>50.586581959999997</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <v>56.222958589999998</v>
       </c>
       <c r="Z19">
@@ -6010,7 +6011,7 @@
       <c r="X20">
         <v>7.2266545659999997</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <v>6.6932093559999997</v>
       </c>
       <c r="Z20">
@@ -6258,7 +6259,7 @@
       <c r="X21">
         <v>2.8906618260000001</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <v>2.6772837420000002</v>
       </c>
       <c r="Z21">
@@ -6506,7 +6507,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="2">
         <v>0</v>
       </c>
       <c r="Z22">
@@ -6754,7 +6755,7 @@
       <c r="X23">
         <v>0.4</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="2">
         <v>0.4</v>
       </c>
       <c r="Z23">
@@ -7002,7 +7003,7 @@
       <c r="X24">
         <v>50.422636869999998</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="2">
         <v>50.422636869999998</v>
       </c>
       <c r="Z24">
@@ -7250,7 +7251,7 @@
       <c r="X25">
         <v>5.9507847050000002</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="2">
         <v>5.9507847050000002</v>
       </c>
       <c r="Z25">
@@ -7498,7 +7499,7 @@
       <c r="X26">
         <v>11.008951700000001</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="2">
         <v>11.008951700000001</v>
       </c>
       <c r="Z26">
@@ -7746,7 +7747,7 @@
       <c r="X27">
         <v>19.63758953</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="2">
         <v>19.63758953</v>
       </c>
       <c r="Z27">
@@ -7994,7 +7995,7 @@
       <c r="X28">
         <v>26.24426798</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="2">
         <v>26.27217417</v>
       </c>
       <c r="Z28">
@@ -8242,7 +8243,7 @@
       <c r="X29">
         <v>51.827972150000001</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="2">
         <v>49.359785289999998</v>
       </c>
       <c r="Z29">
@@ -8490,7 +8491,7 @@
       <c r="X30">
         <v>38.229893699999998</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="2">
         <v>43.781149190000001</v>
       </c>
       <c r="Z30">
@@ -8738,7 +8739,7 @@
       <c r="X31">
         <v>353142.31390000001</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="2">
         <v>363517.42330000002</v>
       </c>
       <c r="Z31">
@@ -8986,7 +8987,7 @@
       <c r="X32">
         <v>0.7</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="2">
         <v>0.7</v>
       </c>
       <c r="Z32">
@@ -9234,7 +9235,7 @@
       <c r="X33">
         <v>209.60490999999999</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="2">
         <v>209.60490999999999</v>
       </c>
       <c r="Z33">
@@ -9482,7 +9483,7 @@
       <c r="X34">
         <v>10000</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="2">
         <v>10000</v>
       </c>
       <c r="Z34">
@@ -9730,7 +9731,7 @@
       <c r="X35">
         <v>6.5054120000000003E-3</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="2">
         <v>6.2804590000000004E-3</v>
       </c>
       <c r="Z35">
@@ -10099,5 +10100,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/csv_results_HIGH_4E_DD.xlsx
+++ b/csv_results_HIGH_4E_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ca05c72b348f169/Documenten/GitHub/Bigger_is_Better/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62E56C74-232A-4F50-B7E9-4240554CB594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{62E56C74-232A-4F50-B7E9-4240554CB594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DD9CCC9D-5E21-411D-913F-7FA088D8C41E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_HIGH_4E_DD" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,11 +848,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1207,11 +1209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ35" sqref="AZ35"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,10 +1221,11 @@
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="13" width="0" hidden="1" customWidth="1"/>
     <col min="17" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
     <col min="28" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="35" max="40" width="0" hidden="1" customWidth="1"/>
     <col min="47" max="49" width="0" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="2"/>
+    <col min="52" max="52" width="8.88671875" style="4"/>
     <col min="56" max="58" width="0" hidden="1" customWidth="1"/>
     <col min="62" max="67" width="0" hidden="1" customWidth="1"/>
     <col min="74" max="79" width="0" hidden="1" customWidth="1"/>
@@ -1298,7 +1301,7 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Z1" t="s">
@@ -1379,7 +1382,7 @@
       <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="BA1" t="s">
@@ -1546,7 +1549,7 @@
       <c r="X2">
         <v>1532425.86</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <v>1581037.503</v>
       </c>
       <c r="Z2">
@@ -1627,7 +1630,7 @@
       <c r="AY2">
         <v>1487022.2579999999</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2" s="4">
         <v>1525973.7749999999</v>
       </c>
       <c r="BA2">
@@ -1794,7 +1797,7 @@
       <c r="X3">
         <v>472485.24530000001</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>472485.24530000001</v>
       </c>
       <c r="Z3">
@@ -1875,7 +1878,7 @@
       <c r="AY3">
         <v>472485.24530000001</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3" s="4">
         <v>472485.24530000001</v>
       </c>
       <c r="BA3">
@@ -2042,7 +2045,7 @@
       <c r="X4">
         <v>137264.76379999999</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>141297.5203</v>
       </c>
       <c r="Z4">
@@ -2123,7 +2126,7 @@
       <c r="AY4">
         <v>133449.92439999999</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4" s="4">
         <v>136741.97159999999</v>
       </c>
       <c r="BA4">
@@ -2290,7 +2293,7 @@
       <c r="X5">
         <v>922675.85129999998</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>967254.73719999997</v>
       </c>
       <c r="Z5">
@@ -2371,7 +2374,7 @@
       <c r="AY5">
         <v>881087.08829999994</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5" s="4">
         <v>916746.55810000002</v>
       </c>
       <c r="BA5">
@@ -2538,7 +2541,7 @@
       <c r="X6">
         <v>194995.8749</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>231295.63620000001</v>
       </c>
       <c r="Z6">
@@ -2619,7 +2622,7 @@
       <c r="AY6">
         <v>163978.1776</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6" s="4">
         <v>193048.3512</v>
       </c>
       <c r="BA6">
@@ -2786,7 +2789,7 @@
       <c r="X7">
         <v>30607.113020000001</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <v>31936.435850000002</v>
       </c>
       <c r="Z7">
@@ -2867,7 +2870,7 @@
       <c r="AY7">
         <v>21615.721580000001</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="4">
         <v>22371.72496</v>
       </c>
       <c r="BA7">
@@ -3034,7 +3037,7 @@
       <c r="X8">
         <v>232652.4252</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>232776.08489999999</v>
       </c>
       <c r="Z8">
@@ -3115,7 +3118,7 @@
       <c r="AY8">
         <v>234652.4258</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8" s="4">
         <v>234794.99069999999</v>
       </c>
       <c r="BA8">
@@ -3282,7 +3285,7 @@
       <c r="X9">
         <v>22954.250400000001</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <v>23628.632509999999</v>
       </c>
       <c r="Z9">
@@ -3363,7 +3366,7 @@
       <c r="AY9">
         <v>25227.132710000002</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="AZ9" s="4">
         <v>25849.45536</v>
       </c>
       <c r="BA9">
@@ -3530,7 +3533,7 @@
       <c r="X10">
         <v>120576.7965</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>120662.4645</v>
       </c>
       <c r="Z10">
@@ -3611,7 +3614,7 @@
       <c r="AY10">
         <v>120506.1621</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10" s="4">
         <v>120582.4479</v>
       </c>
       <c r="BA10">
@@ -3778,7 +3781,7 @@
       <c r="X11">
         <v>283393.01</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <v>288535.89079999999</v>
       </c>
       <c r="Z11">
@@ -3859,7 +3862,7 @@
       <c r="AY11">
         <v>278488.4129</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11" s="4">
         <v>282723.20400000003</v>
       </c>
       <c r="BA11">
@@ -4026,7 +4029,7 @@
       <c r="X12">
         <v>0.64101527899999999</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <v>0.64101527899999999</v>
       </c>
       <c r="Z12">
@@ -4107,7 +4110,7 @@
       <c r="AY12">
         <v>0.74785115800000002</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12" s="4">
         <v>0.74785115800000002</v>
       </c>
       <c r="BA12">
@@ -4274,7 +4277,7 @@
       <c r="X13">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>3.517E-2</v>
       </c>
       <c r="Z13">
@@ -4355,7 +4358,7 @@
       <c r="AY13">
         <v>4.4450000000000003E-2</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ13" s="4">
         <v>4.1239999999999999E-2</v>
       </c>
       <c r="BA13">
@@ -4522,7 +4525,7 @@
       <c r="X14">
         <v>17.093740759999999</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="2">
         <v>18.226195010000001</v>
       </c>
       <c r="Z14">
@@ -4603,7 +4606,7 @@
       <c r="AY14">
         <v>16.824547989999999</v>
       </c>
-      <c r="AZ14" s="2">
+      <c r="AZ14" s="4">
         <v>18.134121199999999</v>
       </c>
       <c r="BA14">
@@ -4770,7 +4773,7 @@
       <c r="X15" s="1">
         <v>9.1099999999999992E-6</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="3">
         <v>9.1099999999999992E-6</v>
       </c>
       <c r="Z15" s="1">
@@ -4851,7 +4854,7 @@
       <c r="AY15" s="1">
         <v>9.1099999999999992E-6</v>
       </c>
-      <c r="AZ15" s="3">
+      <c r="AZ15" s="5">
         <v>9.1099999999999992E-6</v>
       </c>
       <c r="BA15" s="1">
@@ -5018,7 +5021,7 @@
       <c r="X16">
         <v>0.85</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <v>0.85</v>
       </c>
       <c r="Z16">
@@ -5099,7 +5102,7 @@
       <c r="AY16">
         <v>0.85</v>
       </c>
-      <c r="AZ16" s="2">
+      <c r="AZ16" s="4">
         <v>0.85</v>
       </c>
       <c r="BA16">
@@ -5266,7 +5269,7 @@
       <c r="X17">
         <v>10</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="2">
         <v>12</v>
       </c>
       <c r="Z17">
@@ -5347,7 +5350,7 @@
       <c r="AY17">
         <v>10</v>
       </c>
-      <c r="AZ17" s="2">
+      <c r="AZ17" s="4">
         <v>12</v>
       </c>
       <c r="BA17">
@@ -5514,7 +5517,7 @@
       <c r="X18">
         <v>255.9002275</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>263.41842270000001</v>
       </c>
       <c r="Z18">
@@ -5595,7 +5598,7 @@
       <c r="AY18">
         <v>213.2471066</v>
       </c>
-      <c r="AZ18" s="2">
+      <c r="AZ18" s="4">
         <v>218.5076531</v>
       </c>
       <c r="BA18">
@@ -5762,7 +5765,7 @@
       <c r="X19">
         <v>50.586581959999997</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <v>56.222958589999998</v>
       </c>
       <c r="Z19">
@@ -5843,7 +5846,7 @@
       <c r="AY19">
         <v>46.17868627</v>
       </c>
-      <c r="AZ19" s="2">
+      <c r="AZ19" s="4">
         <v>51.2063652</v>
       </c>
       <c r="BA19">
@@ -6010,7 +6013,7 @@
       <c r="X20">
         <v>7.2266545659999997</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <v>6.6932093559999997</v>
       </c>
       <c r="Z20">
@@ -6091,7 +6094,7 @@
       <c r="AY20">
         <v>6.5969551820000003</v>
       </c>
-      <c r="AZ20" s="2">
+      <c r="AZ20" s="4">
         <v>6.0959958580000002</v>
       </c>
       <c r="BA20">
@@ -6258,7 +6261,7 @@
       <c r="X21">
         <v>2.8906618260000001</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <v>2.6772837420000002</v>
       </c>
       <c r="Z21">
@@ -6339,7 +6342,7 @@
       <c r="AY21">
         <v>2.6387820729999998</v>
       </c>
-      <c r="AZ21" s="2">
+      <c r="AZ21" s="4">
         <v>2.4383983429999998</v>
       </c>
       <c r="BA21">
@@ -6506,7 +6509,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="2">
         <v>0</v>
       </c>
       <c r="Z22">
@@ -6587,7 +6590,7 @@
       <c r="AY22">
         <v>0</v>
       </c>
-      <c r="AZ22" s="2">
+      <c r="AZ22" s="4">
         <v>0</v>
       </c>
       <c r="BA22">
@@ -6754,7 +6757,7 @@
       <c r="X23">
         <v>0.4</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="2">
         <v>0.4</v>
       </c>
       <c r="Z23">
@@ -6835,7 +6838,7 @@
       <c r="AY23">
         <v>0.4</v>
       </c>
-      <c r="AZ23" s="2">
+      <c r="AZ23" s="4">
         <v>0.4</v>
       </c>
       <c r="BA23">
@@ -7002,7 +7005,7 @@
       <c r="X24">
         <v>50.422636869999998</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="2">
         <v>50.422636869999998</v>
       </c>
       <c r="Z24">
@@ -7083,7 +7086,7 @@
       <c r="AY24">
         <v>50.422636869999998</v>
       </c>
-      <c r="AZ24" s="2">
+      <c r="AZ24" s="4">
         <v>50.422636869999998</v>
       </c>
       <c r="BA24">
@@ -7250,7 +7253,7 @@
       <c r="X25">
         <v>5.9507847050000002</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="2">
         <v>5.9507847050000002</v>
       </c>
       <c r="Z25">
@@ -7331,7 +7334,7 @@
       <c r="AY25">
         <v>5.9507847050000002</v>
       </c>
-      <c r="AZ25" s="2">
+      <c r="AZ25" s="4">
         <v>5.9507847050000002</v>
       </c>
       <c r="BA25">
@@ -7498,7 +7501,7 @@
       <c r="X26">
         <v>11.008951700000001</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="2">
         <v>11.008951700000001</v>
       </c>
       <c r="Z26">
@@ -7579,7 +7582,7 @@
       <c r="AY26">
         <v>11.008951700000001</v>
       </c>
-      <c r="AZ26" s="2">
+      <c r="AZ26" s="4">
         <v>11.008951700000001</v>
       </c>
       <c r="BA26">
@@ -7746,7 +7749,7 @@
       <c r="X27">
         <v>19.63758953</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="2">
         <v>19.63758953</v>
       </c>
       <c r="Z27">
@@ -7827,7 +7830,7 @@
       <c r="AY27">
         <v>19.63758953</v>
       </c>
-      <c r="AZ27" s="2">
+      <c r="AZ27" s="4">
         <v>19.63758953</v>
       </c>
       <c r="BA27">
@@ -7994,7 +7997,7 @@
       <c r="X28">
         <v>26.24426798</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="2">
         <v>26.27217417</v>
       </c>
       <c r="Z28">
@@ -8075,7 +8078,7 @@
       <c r="AY28">
         <v>26.69742604</v>
       </c>
-      <c r="AZ28" s="2">
+      <c r="AZ28" s="4">
         <v>26.729876350000001</v>
       </c>
       <c r="BA28">
@@ -8242,7 +8245,7 @@
       <c r="X29">
         <v>51.827972150000001</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="2">
         <v>49.359785289999998</v>
       </c>
       <c r="Z29">
@@ -8323,7 +8326,7 @@
       <c r="AY29">
         <v>38.755714640000001</v>
       </c>
-      <c r="AZ29" s="2">
+      <c r="AZ29" s="4">
         <v>36.651438460000001</v>
       </c>
       <c r="BA29">
@@ -8490,7 +8493,7 @@
       <c r="X30">
         <v>38.229893699999998</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="2">
         <v>43.781149190000001</v>
       </c>
       <c r="Z30">
@@ -8571,7 +8574,7 @@
       <c r="AY30">
         <v>28.775101490000001</v>
       </c>
-      <c r="AZ30" s="2">
+      <c r="AZ30" s="4">
         <v>32.717092960000002</v>
       </c>
       <c r="BA30">
@@ -8738,7 +8741,7 @@
       <c r="X31">
         <v>353142.31390000001</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="2">
         <v>363517.42330000002</v>
       </c>
       <c r="Z31">
@@ -8819,7 +8822,7 @@
       <c r="AY31">
         <v>388109.734</v>
       </c>
-      <c r="AZ31" s="2">
+      <c r="AZ31" s="4">
         <v>397683.92869999999</v>
       </c>
       <c r="BA31">
@@ -8986,7 +8989,7 @@
       <c r="X32">
         <v>0.7</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="2">
         <v>0.7</v>
       </c>
       <c r="Z32">
@@ -9067,7 +9070,7 @@
       <c r="AY32">
         <v>0.7</v>
       </c>
-      <c r="AZ32" s="2">
+      <c r="AZ32" s="4">
         <v>0.7</v>
       </c>
       <c r="BA32">
@@ -9234,7 +9237,7 @@
       <c r="X33">
         <v>209.60490999999999</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="2">
         <v>209.60490999999999</v>
       </c>
       <c r="Z33">
@@ -9315,7 +9318,7 @@
       <c r="AY33">
         <v>209.60490999999999</v>
       </c>
-      <c r="AZ33" s="2">
+      <c r="AZ33" s="4">
         <v>209.60490999999999</v>
       </c>
       <c r="BA33">
@@ -9482,7 +9485,7 @@
       <c r="X34">
         <v>10000</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="2">
         <v>10000</v>
       </c>
       <c r="Z34">
@@ -9563,7 +9566,7 @@
       <c r="AY34">
         <v>10000</v>
       </c>
-      <c r="AZ34" s="2">
+      <c r="AZ34" s="4">
         <v>10000</v>
       </c>
       <c r="BA34">
@@ -9730,7 +9733,7 @@
       <c r="X35">
         <v>6.5054120000000003E-3</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="2">
         <v>6.2804590000000004E-3</v>
       </c>
       <c r="Z35">
@@ -9811,7 +9814,7 @@
       <c r="AY35">
         <v>6.4258090000000002E-3</v>
       </c>
-      <c r="AZ35" s="2">
+      <c r="AZ35" s="4">
         <v>6.1088319999999998E-3</v>
       </c>
       <c r="BA35">
